--- a/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3859,7 +3859,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>68451</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53957</v>
+        <v>54063</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85861</v>
+        <v>85156</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06634666760726267</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05229828946175642</v>
+        <v>0.05240047044769634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08322143134903616</v>
+        <v>0.08253785667889431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>129</v>
@@ -765,19 +765,19 @@
         <v>133410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111390</v>
+        <v>113276</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155182</v>
+        <v>158836</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.101444080938957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08470016422029214</v>
+        <v>0.08613380631133512</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1179988691907609</v>
+        <v>0.1207772920815744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>202</v>
@@ -786,19 +786,19 @@
         <v>201862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177416</v>
+        <v>177230</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>229264</v>
+        <v>229437</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08601445095836198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07559803919829988</v>
+        <v>0.07551858460992837</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09769063668080503</v>
+        <v>0.09776425930873592</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>963272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>945862</v>
+        <v>946567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>977766</v>
+        <v>977660</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9336533323927373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9167785686509641</v>
+        <v>0.9174621433211058</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9477017105382436</v>
+        <v>0.9475995295523036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1162</v>
@@ -836,19 +836,19 @@
         <v>1181703</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1159931</v>
+        <v>1156277</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1203723</v>
+        <v>1201837</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.898555919061043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8820011308092388</v>
+        <v>0.8792227079184252</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9152998357797079</v>
+        <v>0.9138661936886648</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2127</v>
@@ -857,19 +857,19 @@
         <v>2144973</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2117571</v>
+        <v>2117398</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2169419</v>
+        <v>2169605</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.913985549041638</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.902309363319195</v>
+        <v>0.9022357406912641</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9244019608017001</v>
+        <v>0.9244814153900717</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>20410</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12482</v>
+        <v>12930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31374</v>
+        <v>31269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01205970012590612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007375432806549024</v>
+        <v>0.00763978475801223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01853816006890396</v>
+        <v>0.01847616785892782</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -982,19 +982,19 @@
         <v>26801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17595</v>
+        <v>18077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39126</v>
+        <v>39666</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01688063018375329</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01108207903228304</v>
+        <v>0.01138612091044026</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02464360444812308</v>
+        <v>0.02498357044421984</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -1003,19 +1003,19 @@
         <v>47211</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35040</v>
+        <v>33838</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64440</v>
+        <v>62423</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01439320725039506</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01068268677683343</v>
+        <v>0.01031640307226212</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01964588993297578</v>
+        <v>0.019031151574603</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1671984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1661020</v>
+        <v>1661125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1679912</v>
+        <v>1679464</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879402998740939</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.981461839931096</v>
+        <v>0.9815238321410722</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9926245671934509</v>
+        <v>0.9923602152419878</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1529</v>
@@ -1053,19 +1053,19 @@
         <v>1560872</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1548547</v>
+        <v>1548007</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1570078</v>
+        <v>1569596</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9831193698162467</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9753563955518767</v>
+        <v>0.9750164295557801</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9889179209677168</v>
+        <v>0.9886138790895594</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3157</v>
@@ -1074,19 +1074,19 @@
         <v>3232856</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3215627</v>
+        <v>3217644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3245027</v>
+        <v>3246229</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9856067927496049</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9803541100670241</v>
+        <v>0.980968848425397</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9893173132231666</v>
+        <v>0.9896835969277379</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2395</v>
+        <v>1641</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15429</v>
+        <v>15307</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01166341546476361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004343065136104842</v>
+        <v>0.002975154137541031</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02798045737834967</v>
+        <v>0.02776067635418788</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>11321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5814</v>
+        <v>5571</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20080</v>
+        <v>20927</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02376221516848385</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0122028864211793</v>
+        <v>0.01169408380373714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04214796122621207</v>
+        <v>0.0439258663173147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1220,19 +1220,19 @@
         <v>17752</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10077</v>
+        <v>10059</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28360</v>
+        <v>28498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01727141235807442</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009804412435566068</v>
+        <v>0.00978704097207145</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02759220234732041</v>
+        <v>0.02772664813943225</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>544977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>535979</v>
+        <v>536101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>549013</v>
+        <v>549767</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9883365845352364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9720195426216504</v>
+        <v>0.9722393236458122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956569348638952</v>
+        <v>0.997024845862459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>442</v>
@@ -1270,19 +1270,19 @@
         <v>465091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>456332</v>
+        <v>455485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>470598</v>
+        <v>470841</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9762377848315161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.957852038773788</v>
+        <v>0.9560741336826853</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9877971135788207</v>
+        <v>0.9883059161962628</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>964</v>
@@ -1291,19 +1291,19 @@
         <v>1010068</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>999460</v>
+        <v>999322</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1017743</v>
+        <v>1017761</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9827285876419256</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9724077976526795</v>
+        <v>0.9722733518605676</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9901955875644339</v>
+        <v>0.9902129590279285</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>95292</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77893</v>
+        <v>77983</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115968</v>
+        <v>115942</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0290922633861063</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02378032746097833</v>
+        <v>0.02380779310962127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03540438034759337</v>
+        <v>0.0353963372602435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -1416,19 +1416,19 @@
         <v>171532</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147295</v>
+        <v>148233</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200761</v>
+        <v>199394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05076114029983908</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0435888668247593</v>
+        <v>0.04386643182925015</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05941075619114513</v>
+        <v>0.059006248536433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>262</v>
@@ -1437,19 +1437,19 @@
         <v>266824</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>237697</v>
+        <v>235050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>301039</v>
+        <v>300962</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04009548868701666</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03571860583408898</v>
+        <v>0.03532084317272669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04523692295307235</v>
+        <v>0.04522529726698722</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3180233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3159557</v>
+        <v>3159583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3197632</v>
+        <v>3197542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9709077366138937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9645956196524064</v>
+        <v>0.9646036627397565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.976219672539021</v>
+        <v>0.9761922068903786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3133</v>
@@ -1487,19 +1487,19 @@
         <v>3207665</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3178436</v>
+        <v>3179803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3231902</v>
+        <v>3230964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.949238859700161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9405892438088574</v>
+        <v>0.9409937514635676</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9564111331752407</v>
+        <v>0.9561335681707499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6248</v>
@@ -1508,19 +1508,19 @@
         <v>6387898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6353683</v>
+        <v>6353760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6417025</v>
+        <v>6419672</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9599045113129834</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9547630770469275</v>
+        <v>0.9547747027330119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.964281394165911</v>
+        <v>0.964679156827273</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>38603</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27881</v>
+        <v>27557</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53784</v>
+        <v>52639</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03972145952210841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02868850909387006</v>
+        <v>0.02835526511177787</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05534214508257201</v>
+        <v>0.05416412946373715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>155</v>
@@ -1872,19 +1872,19 @@
         <v>166988</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>140327</v>
+        <v>145095</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192205</v>
+        <v>194524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1254088927915752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1053860382002261</v>
+        <v>0.1089667129270104</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1443463874106011</v>
+        <v>0.1460880004801429</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>190</v>
@@ -1893,19 +1893,19 @@
         <v>205591</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178598</v>
+        <v>178514</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>234261</v>
+        <v>235623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08925597432795525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07753697353832975</v>
+        <v>0.07750078260077276</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1017027180983312</v>
+        <v>0.1022940023729414</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>933234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>918053</v>
+        <v>919198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>943956</v>
+        <v>944280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9602785404778916</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9446578549174279</v>
+        <v>0.9458358705362624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.97131149090613</v>
+        <v>0.9716447348882221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1086</v>
@@ -1943,19 +1943,19 @@
         <v>1164563</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1139346</v>
+        <v>1137027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1191224</v>
+        <v>1186456</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8745911072084248</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.855653612589399</v>
+        <v>0.8539119995198572</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8946139617997739</v>
+        <v>0.8910332870729897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1957</v>
@@ -1964,19 +1964,19 @@
         <v>2097797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2069127</v>
+        <v>2067765</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2124790</v>
+        <v>2124874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9107440256720447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8982972819016692</v>
+        <v>0.8977059976270587</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9224630264616703</v>
+        <v>0.9224992173992272</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>25611</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16578</v>
+        <v>15991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37623</v>
+        <v>38602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01306666315578959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008458301460282413</v>
+        <v>0.008158650811738522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0191952879848491</v>
+        <v>0.01969484029424117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -2089,19 +2089,19 @@
         <v>31895</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21393</v>
+        <v>21129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45156</v>
+        <v>44167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01820671602847504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01221190854253205</v>
+        <v>0.01206111953219518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0257759838194085</v>
+        <v>0.02521154688249283</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -2110,19 +2110,19 @@
         <v>57506</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43476</v>
+        <v>42937</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73223</v>
+        <v>74688</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01549255475618289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01171259138096449</v>
+        <v>0.01156750438088934</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0197266736293864</v>
+        <v>0.0201213499283212</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1934411</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1922399</v>
+        <v>1921420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1943444</v>
+        <v>1944031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9869333368442104</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9808047120151508</v>
+        <v>0.9803051597057587</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9915416985397175</v>
+        <v>0.9918413491882614</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1601</v>
@@ -2160,19 +2160,19 @@
         <v>1719954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1706693</v>
+        <v>1707682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1730456</v>
+        <v>1730720</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.981793283971525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9742240161805916</v>
+        <v>0.9747884531175071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9877880914574682</v>
+        <v>0.9879388804678048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3430</v>
@@ -2181,19 +2181,19 @@
         <v>3654365</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3638648</v>
+        <v>3637183</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3668395</v>
+        <v>3668934</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9845074452438171</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9802733263706136</v>
+        <v>0.9798786500716788</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9882874086190355</v>
+        <v>0.9884324956191107</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>7115</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2822</v>
+        <v>2849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16529</v>
+        <v>18572</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01481295389352895</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005874234362746479</v>
+        <v>0.005931951484041972</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03441185485580298</v>
+        <v>0.03866583606110021</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2306,19 +2306,19 @@
         <v>6526</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2395</v>
+        <v>2614</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13532</v>
+        <v>13518</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01425996471103312</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005233209233568276</v>
+        <v>0.005711356603740649</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02956743760593624</v>
+        <v>0.02953825823191163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -2327,19 +2327,19 @@
         <v>13641</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7152</v>
+        <v>7193</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24074</v>
+        <v>24048</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01454314408344359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007625057076903527</v>
+        <v>0.007668257656017525</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02566548246707492</v>
+        <v>0.02563775260043506</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>473217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>463803</v>
+        <v>461760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477510</v>
+        <v>477483</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.985187046106471</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.965588145144197</v>
+        <v>0.961334163938899</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941257656372535</v>
+        <v>0.994068048515958</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>405</v>
@@ -2377,19 +2377,19 @@
         <v>451128</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>444122</v>
+        <v>444136</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455259</v>
+        <v>455040</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9857400352889669</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9704325623940637</v>
+        <v>0.9704617417680882</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9947667907664317</v>
+        <v>0.9942886433962593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>837</v>
@@ -2398,19 +2398,19 @@
         <v>924345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>913912</v>
+        <v>913938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>930834</v>
+        <v>930793</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9854568559165564</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9743345175329258</v>
+        <v>0.9743622473995647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9923749429230965</v>
+        <v>0.9923317423439824</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>71329</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54832</v>
+        <v>55164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90068</v>
+        <v>90941</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02090412468122714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01606945136986813</v>
+        <v>0.01616669866481696</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0263958800169121</v>
+        <v>0.02665170975954164</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>190</v>
@@ -2523,19 +2523,19 @@
         <v>205410</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>180763</v>
+        <v>178809</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>232782</v>
+        <v>234935</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05800812309175475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05104765335547164</v>
+        <v>0.05049585780346497</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06573815634519506</v>
+        <v>0.06634597640418076</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>253</v>
@@ -2544,19 +2544,19 @@
         <v>276739</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243011</v>
+        <v>241922</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311426</v>
+        <v>312041</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03979994671197021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03494925549351065</v>
+        <v>0.0347927384450313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04478856430520271</v>
+        <v>0.04487697629671208</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3340862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3322123</v>
+        <v>3321250</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3357359</v>
+        <v>3357027</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9790958753187728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.973604119983088</v>
+        <v>0.9733482902404583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.983930548630132</v>
+        <v>0.9838333013351831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3092</v>
@@ -2594,19 +2594,19 @@
         <v>3335645</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3308273</v>
+        <v>3306120</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3360292</v>
+        <v>3362246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9419918769082453</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9342618436548049</v>
+        <v>0.9336540235958193</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9489523466445283</v>
+        <v>0.949504142196535</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6224</v>
@@ -2615,19 +2615,19 @@
         <v>6676507</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6641820</v>
+        <v>6641205</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6710235</v>
+        <v>6711324</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9602000532880298</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9552114356947972</v>
+        <v>0.9551230237032874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9650507445064893</v>
+        <v>0.9652072615549685</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>26671</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18135</v>
+        <v>18106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37162</v>
+        <v>37316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03535679764888468</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02404019641986353</v>
+        <v>0.0240025487413638</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04926375423476251</v>
+        <v>0.04946811836095221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -2979,19 +2979,19 @@
         <v>93061</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73437</v>
+        <v>76143</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113720</v>
+        <v>114237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09356109348980633</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07383118269447903</v>
+        <v>0.07655163666590196</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1143308758123882</v>
+        <v>0.1148502557500757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -3000,19 +3000,19 @@
         <v>119733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101546</v>
+        <v>97527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142018</v>
+        <v>142445</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06845757803053673</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05805897511362512</v>
+        <v>0.0557611163544478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08119927671356209</v>
+        <v>0.08144320453376518</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>727676</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>717185</v>
+        <v>717031</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>736212</v>
+        <v>736241</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9646432023511153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9507362457652373</v>
+        <v>0.9505318816390479</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9759598035801365</v>
+        <v>0.9759974512586364</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>810</v>
@@ -3050,19 +3050,19 @@
         <v>901599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>880940</v>
+        <v>880423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>921223</v>
+        <v>918517</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9064389065101937</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.885669124187612</v>
+        <v>0.8851497442499243</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.926168817305521</v>
+        <v>0.923448363334098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1543</v>
@@ -3071,19 +3071,19 @@
         <v>1629274</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1606989</v>
+        <v>1606562</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1647461</v>
+        <v>1651480</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9315424219694632</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.918800723286438</v>
+        <v>0.9185567954662349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.941941024886375</v>
+        <v>0.9442388836455524</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>17578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10414</v>
+        <v>10232</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29371</v>
+        <v>28122</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008465782007557985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005015432589917937</v>
+        <v>0.004927586140998749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01414526091146489</v>
+        <v>0.01354362167975534</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -3196,19 +3196,19 @@
         <v>37291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26082</v>
+        <v>26720</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50690</v>
+        <v>52484</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0187553726951537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01311752027184773</v>
+        <v>0.01343875546921973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02549422731813502</v>
+        <v>0.02639629221321065</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -3217,19 +3217,19 @@
         <v>54870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41220</v>
+        <v>40917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73812</v>
+        <v>71558</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01349908561619112</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01014099455328278</v>
+        <v>0.01006638596369502</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01815936741857455</v>
+        <v>0.0176048432994089</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2058807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2047014</v>
+        <v>2048263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2065971</v>
+        <v>2066153</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.991534217992442</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9858547390885346</v>
+        <v>0.9864563783202446</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9949845674100818</v>
+        <v>0.9950724138590011</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1875</v>
@@ -3267,19 +3267,19 @@
         <v>1951009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1937610</v>
+        <v>1935816</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1962218</v>
+        <v>1961580</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9812446273048463</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9745057726818651</v>
+        <v>0.9736037077867895</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9868824797281526</v>
+        <v>0.9865612445307803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3811</v>
@@ -3288,19 +3288,19 @@
         <v>4009815</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3990873</v>
+        <v>3993127</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4023465</v>
+        <v>4023768</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9865009143838088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9818406325814255</v>
+        <v>0.9823951567005911</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9898590054467173</v>
+        <v>0.9899336140363051</v>
       </c>
     </row>
     <row r="9">
@@ -3405,19 +3405,19 @@
         <v>4205</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1073</v>
+        <v>1140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9946</v>
+        <v>9885</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007657492664191592</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001954120491144534</v>
+        <v>0.00207596475469329</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01811113690180796</v>
+        <v>0.01800148540390513</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3426,7 +3426,7 @@
         <v>4205</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>10452</v>
@@ -3435,10 +3435,10 @@
         <v>0.003836620723807819</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0009801556713817511</v>
+        <v>0.000983295199758435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009536101192836851</v>
+        <v>0.009536017224793492</v>
       </c>
     </row>
     <row r="11">
@@ -3468,19 +3468,19 @@
         <v>544935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>539194</v>
+        <v>539255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548067</v>
+        <v>548000</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9923425073358084</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9818888630981929</v>
+        <v>0.9819985145960949</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9980458795088555</v>
+        <v>0.9979240352453067</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1023</v>
@@ -3492,16 +3492,16 @@
         <v>1085575</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1094953</v>
+        <v>1094949</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9961633792761921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9904638988071632</v>
+        <v>0.9904639827752063</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9990198443286183</v>
+        <v>0.9990167048002415</v>
       </c>
     </row>
     <row r="12">
@@ -3593,19 +3593,19 @@
         <v>44250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32165</v>
+        <v>32357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58728</v>
+        <v>59249</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01310080348640924</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009522999607385013</v>
+        <v>0.009579825228228471</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.017387397853333</v>
+        <v>0.01754171579128233</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -3614,19 +3614,19 @@
         <v>134558</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113231</v>
+        <v>110867</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158059</v>
+        <v>158410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03809569919477881</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03205778853460484</v>
+        <v>0.0313883421957725</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04474924850652642</v>
+        <v>0.04484855194125048</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -3635,19 +3635,19 @@
         <v>178807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153758</v>
+        <v>152881</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208682</v>
+        <v>208304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02587766052245359</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02225242211456724</v>
+        <v>0.02212554077720115</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03020123189483906</v>
+        <v>0.03014646007703439</v>
       </c>
     </row>
     <row r="14">
@@ -3664,19 +3664,19 @@
         <v>3333368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3318890</v>
+        <v>3318369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3345453</v>
+        <v>3345261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9868991965135907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.982612602146667</v>
+        <v>0.9824582842087176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9904770003926149</v>
+        <v>0.9904201747717715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3207</v>
@@ -3685,19 +3685,19 @@
         <v>3397542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3374041</v>
+        <v>3373690</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3418869</v>
+        <v>3421233</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9619043008052212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9552507514934736</v>
+        <v>0.9551514480587495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9679422114653952</v>
+        <v>0.9686116578042275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6377</v>
@@ -3706,19 +3706,19 @@
         <v>6730911</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6701036</v>
+        <v>6701414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6755960</v>
+        <v>6756837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9741223394775465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9697987681051611</v>
+        <v>0.9698535399229655</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9777475778854328</v>
+        <v>0.9778744592227988</v>
       </c>
     </row>
     <row r="15">
@@ -4049,19 +4049,19 @@
         <v>25337</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17886</v>
+        <v>17908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34271</v>
+        <v>36198</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04396936117342391</v>
+        <v>0.0439693611734239</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03103914628365437</v>
+        <v>0.03107697053004039</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05947306510144875</v>
+        <v>0.0628174134668773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -4070,19 +4070,19 @@
         <v>102122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89068</v>
+        <v>88842</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116349</v>
+        <v>117828</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1245712556843464</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1086484410593924</v>
+        <v>0.1083726982031557</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1419267779102407</v>
+        <v>0.1437307309000342</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>212</v>
@@ -4091,19 +4091,19 @@
         <v>127458</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110857</v>
+        <v>111552</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147156</v>
+        <v>144924</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09130116434696775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07940923063734455</v>
+        <v>0.0799068565414833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.105410791789212</v>
+        <v>0.1038120462636949</v>
       </c>
     </row>
     <row r="5">
@@ -4120,19 +4120,19 @@
         <v>550900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>541966</v>
+        <v>540039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>558351</v>
+        <v>558329</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9560306388265762</v>
+        <v>0.956030638826576</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9405269348985512</v>
+        <v>0.9371825865331219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9689608537163458</v>
+        <v>0.9689230294699591</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1246</v>
@@ -4141,19 +4141,19 @@
         <v>717663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>703436</v>
+        <v>701957</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>730717</v>
+        <v>730943</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8754287443156538</v>
+        <v>0.8754287443156535</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8580732220897593</v>
+        <v>0.8562692690999658</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8913515589406076</v>
+        <v>0.8916273017968442</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1899</v>
@@ -4162,19 +4162,19 @@
         <v>1268563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1248865</v>
+        <v>1251097</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1285164</v>
+        <v>1284469</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9086988356530323</v>
+        <v>0.9086988356530324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.894589208210788</v>
+        <v>0.8961879537363051</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9205907693626554</v>
+        <v>0.9200931434585167</v>
       </c>
     </row>
     <row r="6">
@@ -4266,19 +4266,19 @@
         <v>39157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28464</v>
+        <v>28599</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52881</v>
+        <v>51639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01755471495534978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01276076253331289</v>
+        <v>0.01282157708353212</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0237072662318488</v>
+        <v>0.02315077456576814</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -4287,19 +4287,19 @@
         <v>76401</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63643</v>
+        <v>62717</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91823</v>
+        <v>92283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03519636477572251</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0293189104466087</v>
+        <v>0.02889253037405064</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04230108210731262</v>
+        <v>0.04251286259733127</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>166</v>
@@ -4308,19 +4308,19 @@
         <v>115558</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98079</v>
+        <v>97450</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135289</v>
+        <v>134573</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02625557308454245</v>
+        <v>0.02625557308454246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02228431439437242</v>
+        <v>0.02214122816963263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0307385477707484</v>
+        <v>0.03057601153971983</v>
       </c>
     </row>
     <row r="8">
@@ -4337,19 +4337,19 @@
         <v>2191409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2177685</v>
+        <v>2178927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2202102</v>
+        <v>2201967</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9824452850446503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9762927337681513</v>
+        <v>0.9768492254342317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.987239237466687</v>
+        <v>0.9871784229164678</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2798</v>
@@ -4358,19 +4358,19 @@
         <v>2094306</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2078884</v>
+        <v>2078424</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2107064</v>
+        <v>2107990</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9648036352242775</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9576989178926874</v>
+        <v>0.9574871374026688</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9706810895533915</v>
+        <v>0.9711074696259494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4746</v>
@@ -4379,19 +4379,19 @@
         <v>4285716</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4265985</v>
+        <v>4266701</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4303195</v>
+        <v>4303824</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9737444269154577</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9692614522292515</v>
+        <v>0.9694239884602801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9777156856056278</v>
+        <v>0.9778587718303674</v>
       </c>
     </row>
     <row r="9">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4584</v>
+        <v>5333</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001836085600729959</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006441573029854261</v>
+        <v>0.007495203001862188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -4504,19 +4504,19 @@
         <v>23310</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15979</v>
+        <v>16629</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33466</v>
+        <v>34400</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03175730443321112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02176942482482241</v>
+        <v>0.02265560028313384</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04559346560922195</v>
+        <v>0.04686645066436738</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -4525,19 +4525,19 @@
         <v>24617</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17007</v>
+        <v>17615</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35982</v>
+        <v>35371</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01702869800980968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01176439733474891</v>
+        <v>0.01218504373370401</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02489072199378869</v>
+        <v>0.02446803647937765</v>
       </c>
     </row>
     <row r="11">
@@ -4554,7 +4554,7 @@
         <v>710280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>707003</v>
+        <v>706254</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>711587</v>
@@ -4563,7 +4563,7 @@
         <v>0.9981639143992701</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9935584269701461</v>
+        <v>0.9925047969981379</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -4575,19 +4575,19 @@
         <v>710695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>700539</v>
+        <v>699605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>718026</v>
+        <v>717376</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.968242695566789</v>
+        <v>0.9682426955667889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9544065343907782</v>
+        <v>0.9531335493356323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9782305751751778</v>
+        <v>0.977344399716866</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1649</v>
@@ -4596,19 +4596,19 @@
         <v>1420975</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1409610</v>
+        <v>1410221</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1428585</v>
+        <v>1427977</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9829713019901903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9751092780062113</v>
+        <v>0.9755319635206227</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9882356026652509</v>
+        <v>0.987814956266296</v>
       </c>
     </row>
     <row r="12">
@@ -4700,19 +4700,19 @@
         <v>65800</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51660</v>
+        <v>51444</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83381</v>
+        <v>82228</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01870180504647446</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01468294565656967</v>
+        <v>0.01462152545784664</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02369872645141028</v>
+        <v>0.0233708555887015</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -4721,19 +4721,19 @@
         <v>201833</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>179363</v>
+        <v>180759</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>225533</v>
+        <v>228998</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05419057790967746</v>
+        <v>0.05419057790967747</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04815755143811091</v>
+        <v>0.04853257977832817</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06055404307969986</v>
+        <v>0.0614843466080669</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>413</v>
@@ -4742,19 +4742,19 @@
         <v>267633</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>244042</v>
+        <v>242560</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>297691</v>
+        <v>293854</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03695113354576528</v>
+        <v>0.03695113354576527</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03369395390675234</v>
+        <v>0.03348938232259471</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04110109553149802</v>
+        <v>0.04057135603890161</v>
       </c>
     </row>
     <row r="14">
@@ -4771,19 +4771,19 @@
         <v>3452590</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3435009</v>
+        <v>3436162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3466730</v>
+        <v>3466946</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9812981949535253</v>
+        <v>0.9812981949535257</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9763012735485898</v>
+        <v>0.9766291444112984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9853170543434303</v>
+        <v>0.9853784745421533</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5014</v>
@@ -4792,19 +4792,19 @@
         <v>3522664</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3498964</v>
+        <v>3495499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3545134</v>
+        <v>3543738</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9458094220903225</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9394459569203002</v>
+        <v>0.9385156533919332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.951842448561889</v>
+        <v>0.9514674202216717</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8294</v>
@@ -4813,19 +4813,19 @@
         <v>6975254</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6945196</v>
+        <v>6949033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6998845</v>
+        <v>7000327</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9630488664542347</v>
+        <v>0.9630488664542346</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9588989044685019</v>
+        <v>0.9594286439610986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9663060460932476</v>
+        <v>0.9665106176774053</v>
       </c>
     </row>
     <row r="15">
